--- a/Code/Results/Cases/Case_8_4/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_8_4/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,61 +424,76 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>1.016782523628069</v>
+        <v>1.013527680760062</v>
       </c>
       <c r="D2">
-        <v>1.036145800421447</v>
+        <v>1.032971597173031</v>
       </c>
       <c r="E2">
-        <v>1.020919321499511</v>
+        <v>1.018126007786837</v>
       </c>
       <c r="F2">
-        <v>1.038625540738194</v>
+        <v>1.036166467568935</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.05444095245931</v>
+        <v>1.052425824197187</v>
       </c>
       <c r="J2">
-        <v>1.038472602638092</v>
+        <v>1.03531117463664</v>
       </c>
       <c r="K2">
-        <v>1.047123527436014</v>
+        <v>1.043989929023496</v>
       </c>
       <c r="L2">
-        <v>1.032094711385273</v>
+        <v>1.029338464693145</v>
       </c>
       <c r="M2">
-        <v>1.049571762161139</v>
+        <v>1.047143931224884</v>
       </c>
       <c r="N2">
-        <v>1.039947352848311</v>
+        <v>1.029395794153316</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.047805078690662</v>
+        <v>1.045883630003274</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.044390683668819</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.042183700886952</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023692770386975</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.020294747144195</v>
+        <v>1.016766706013363</v>
       </c>
       <c r="D3">
-        <v>1.038518819616577</v>
+        <v>1.035078902996405</v>
       </c>
       <c r="E3">
-        <v>1.023671082765068</v>
+        <v>1.020636400074295</v>
       </c>
       <c r="F3">
-        <v>1.041154029346494</v>
+        <v>1.03849024384033</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.055391568654053</v>
+        <v>1.053203784196717</v>
       </c>
       <c r="J3">
-        <v>1.040247041504947</v>
+        <v>1.036810500108514</v>
       </c>
       <c r="K3">
-        <v>1.048681470992326</v>
+        <v>1.045281785978023</v>
       </c>
       <c r="L3">
-        <v>1.034009787858939</v>
+        <v>1.031011871404534</v>
       </c>
       <c r="M3">
-        <v>1.05128608282168</v>
+        <v>1.048653228066986</v>
       </c>
       <c r="N3">
-        <v>1.041724311621888</v>
+        <v>1.030236412705027</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.049161833740706</v>
+        <v>1.047078127454278</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.04548962365538</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.043094221055274</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023942405772394</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.022529811514288</v>
+        <v>1.018829402612413</v>
       </c>
       <c r="D4">
-        <v>1.040032714952056</v>
+        <v>1.036424590424113</v>
       </c>
       <c r="E4">
-        <v>1.025427723734377</v>
+        <v>1.022240588332329</v>
       </c>
       <c r="F4">
-        <v>1.042769870067021</v>
+        <v>1.039976677582946</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.055987546738955</v>
+        <v>1.053690272882561</v>
       </c>
       <c r="J4">
-        <v>1.041374247641697</v>
+        <v>1.037763413637601</v>
       </c>
       <c r="K4">
-        <v>1.049670845108252</v>
+        <v>1.046102413608821</v>
       </c>
       <c r="L4">
-        <v>1.035228647070829</v>
+        <v>1.032077799494015</v>
       </c>
       <c r="M4">
-        <v>1.052378113624536</v>
+        <v>1.0496154216211</v>
       </c>
       <c r="N4">
-        <v>1.042853118520643</v>
+        <v>1.030770674620808</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.050026092176878</v>
+        <v>1.047839631879553</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.046190073012092</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.043675440611751</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.024098708996004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.023463831536213</v>
+        <v>1.019691550680509</v>
       </c>
       <c r="D5">
-        <v>1.040668116713393</v>
+        <v>1.036989842529607</v>
       </c>
       <c r="E5">
-        <v>1.026163535051647</v>
+        <v>1.022912786540576</v>
       </c>
       <c r="F5">
-        <v>1.04344735333189</v>
+        <v>1.040600212183293</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.056235889217448</v>
+        <v>1.053892882543408</v>
       </c>
       <c r="J5">
-        <v>1.041846288006624</v>
+        <v>1.038162633864082</v>
       </c>
       <c r="K5">
-        <v>1.050086358625813</v>
+        <v>1.046447487843421</v>
       </c>
       <c r="L5">
-        <v>1.035739170990606</v>
+        <v>1.032524450429566</v>
       </c>
       <c r="M5">
-        <v>1.052836048223116</v>
+        <v>1.050019178430545</v>
       </c>
       <c r="N5">
-        <v>1.043325829237033</v>
+        <v>1.030994501367044</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.050388511912168</v>
+        <v>1.048159175043388</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.046490979502133</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.043927266372065</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.024164415575142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,105 +687,123 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.023623985948025</v>
+        <v>1.019839184028092</v>
       </c>
       <c r="D6">
-        <v>1.040779395894491</v>
+        <v>1.037089031737124</v>
       </c>
       <c r="E6">
-        <v>1.026290294072143</v>
+        <v>1.023028448054837</v>
       </c>
       <c r="F6">
-        <v>1.043564379301393</v>
+        <v>1.040707915240013</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.056280133783994</v>
+        <v>1.053929210837559</v>
       </c>
       <c r="J6">
-        <v>1.041929006380035</v>
+        <v>1.038232674798297</v>
       </c>
       <c r="K6">
-        <v>1.050160704054529</v>
+        <v>1.046509694340812</v>
       </c>
       <c r="L6">
-        <v>1.035828112109492</v>
+        <v>1.032602251709534</v>
       </c>
       <c r="M6">
-        <v>1.05291621349235</v>
+        <v>1.050089982433367</v>
       </c>
       <c r="N6">
-        <v>1.043408665080022</v>
+        <v>1.031033770465556</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.050451956490197</v>
+        <v>1.048215211075004</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.046552215597161</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.043980804028948</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.02417687615124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.022552640883429</v>
+        <v>1.018867868238472</v>
       </c>
       <c r="D7">
-        <v>1.040054330414325</v>
+        <v>1.036456990563563</v>
       </c>
       <c r="E7">
-        <v>1.025447098449587</v>
+        <v>1.022274352895338</v>
       </c>
       <c r="F7">
-        <v>1.042788463913222</v>
+        <v>1.04000446591083</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.05599842190478</v>
+        <v>1.053709150980033</v>
       </c>
       <c r="J7">
-        <v>1.041390640711982</v>
+        <v>1.03779502479939</v>
       </c>
       <c r="K7">
-        <v>1.049689376321587</v>
+        <v>1.046131595160668</v>
       </c>
       <c r="L7">
-        <v>1.035244900318015</v>
+        <v>1.03210826437258</v>
       </c>
       <c r="M7">
-        <v>1.052393667553139</v>
+        <v>1.049640057863613</v>
       </c>
       <c r="N7">
-        <v>1.04286953487097</v>
+        <v>1.030840314352977</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.0500384019085</v>
+        <v>1.047859129617518</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.046223114739037</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.043718046952292</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.024108022489539</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.017990324555919</v>
+        <v>1.014696213631577</v>
       </c>
       <c r="D8">
-        <v>1.036968550127397</v>
+        <v>1.033741945201861</v>
       </c>
       <c r="E8">
-        <v>1.021866271931287</v>
+        <v>1.019040271461198</v>
       </c>
       <c r="F8">
-        <v>1.03949614322209</v>
+        <v>1.036999540077421</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.054775563727842</v>
+        <v>1.052729599605084</v>
       </c>
       <c r="J8">
-        <v>1.039089232181133</v>
+        <v>1.035886532287557</v>
       </c>
       <c r="K8">
-        <v>1.047670002877474</v>
+        <v>1.04448346365824</v>
       </c>
       <c r="L8">
-        <v>1.032757977829688</v>
+        <v>1.029968361759434</v>
       </c>
       <c r="M8">
-        <v>1.050166426272463</v>
+        <v>1.047700609521129</v>
       </c>
       <c r="N8">
-        <v>1.040564858076031</v>
+        <v>1.029875744205362</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.048275710607191</v>
+        <v>1.046324200159981</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.04479980337771</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.042557692579662</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.023797016893015</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.009635064585583</v>
+        <v>1.007010779220541</v>
       </c>
       <c r="D9">
-        <v>1.031339176282515</v>
+        <v>1.028757392684846</v>
       </c>
       <c r="E9">
-        <v>1.015351029534697</v>
+        <v>1.013116123594536</v>
       </c>
       <c r="F9">
-        <v>1.033518758568339</v>
+        <v>1.031520735706259</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.052459129512167</v>
+        <v>1.050831534920312</v>
       </c>
       <c r="J9">
-        <v>1.034852112292279</v>
+        <v>1.032318374849698</v>
       </c>
       <c r="K9">
-        <v>1.043943466277046</v>
+        <v>1.041400516205527</v>
       </c>
       <c r="L9">
-        <v>1.028199861721153</v>
+        <v>1.025999925653991</v>
       </c>
       <c r="M9">
-        <v>1.046090456787992</v>
+        <v>1.044122304110803</v>
       </c>
       <c r="N9">
-        <v>1.03632172099093</v>
+        <v>1.027894199015173</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.04504988131324</v>
+        <v>1.043492228522896</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.04216178380227</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.040374434690911</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023187875988979</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.003903183636281</v>
+        <v>1.001823971752449</v>
       </c>
       <c r="D10">
-        <v>1.02752552865367</v>
+        <v>1.025444272545506</v>
       </c>
       <c r="E10">
-        <v>1.010921613479879</v>
+        <v>1.009169120131069</v>
       </c>
       <c r="F10">
-        <v>1.029537231508979</v>
+        <v>1.027931789335836</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.050847057163266</v>
+        <v>1.049547566082868</v>
       </c>
       <c r="J10">
-        <v>1.031962791965153</v>
+        <v>1.029965409060146</v>
       </c>
       <c r="K10">
-        <v>1.041414971322451</v>
+        <v>1.039368833017775</v>
       </c>
       <c r="L10">
-        <v>1.025096435562434</v>
+        <v>1.023374773503598</v>
       </c>
       <c r="M10">
-        <v>1.043392903903295</v>
+        <v>1.041814398408564</v>
       </c>
       <c r="N10">
-        <v>1.03342829749753</v>
+        <v>1.026806634020272</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.042966119109743</v>
+        <v>1.041716918182112</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.040390698916653</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.038956317470614</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.02279114256806</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.001799138206962</v>
+        <v>0.9999902680398812</v>
       </c>
       <c r="D11">
-        <v>1.026320036366967</v>
+        <v>1.024462755153347</v>
       </c>
       <c r="E11">
-        <v>1.009366502659259</v>
+        <v>1.007853163689955</v>
       </c>
       <c r="F11">
-        <v>1.028716535644623</v>
+        <v>1.027293540371758</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.050408626333614</v>
+        <v>1.049261937786847</v>
       </c>
       <c r="J11">
-        <v>1.031097261991781</v>
+        <v>1.029363451878671</v>
       </c>
       <c r="K11">
-        <v>1.040762097884152</v>
+        <v>1.038937628932356</v>
       </c>
       <c r="L11">
-        <v>1.024113916077714</v>
+        <v>1.022628485047784</v>
       </c>
       <c r="M11">
-        <v>1.043116485449705</v>
+        <v>1.041718464590548</v>
       </c>
       <c r="N11">
-        <v>1.032561538372318</v>
+        <v>1.026911391192155</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.043181219254576</v>
+        <v>1.042075401877309</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.0399617205521</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.038687314929076</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.022769863462151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.001153256852463</v>
+        <v>0.9994145511317239</v>
       </c>
       <c r="D12">
-        <v>1.0260237272678</v>
+        <v>1.024221481375299</v>
       </c>
       <c r="E12">
-        <v>1.008916804650464</v>
+        <v>1.007462918424336</v>
       </c>
       <c r="F12">
-        <v>1.028732432903728</v>
+        <v>1.027355767285874</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.05033542171464</v>
+        <v>1.049227430841128</v>
       </c>
       <c r="J12">
-        <v>1.030908888846378</v>
+        <v>1.029243708888634</v>
       </c>
       <c r="K12">
-        <v>1.040668778385791</v>
+        <v>1.038898897003553</v>
       </c>
       <c r="L12">
-        <v>1.023875143672484</v>
+        <v>1.022448523889869</v>
       </c>
       <c r="M12">
-        <v>1.043329118257041</v>
+        <v>1.041976992548943</v>
       </c>
       <c r="N12">
-        <v>1.032372897715442</v>
+        <v>1.027036441127317</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.043674149282197</v>
+        <v>1.042604993159361</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.039895741471347</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.038659931025938</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022801411762105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.001601509689442</v>
+        <v>0.9997708449121369</v>
       </c>
       <c r="D13">
-        <v>1.026425951846448</v>
+        <v>1.024543878114461</v>
       </c>
       <c r="E13">
-        <v>1.009299348247288</v>
+        <v>1.007759718084336</v>
       </c>
       <c r="F13">
-        <v>1.029418267579304</v>
+        <v>1.027979104963137</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.050553815652852</v>
+        <v>1.049393057693465</v>
       </c>
       <c r="J13">
-        <v>1.031245871348294</v>
+        <v>1.029492249632766</v>
       </c>
       <c r="K13">
-        <v>1.041021404578606</v>
+        <v>1.039172985230604</v>
       </c>
       <c r="L13">
-        <v>1.024207086925359</v>
+        <v>1.022696209155414</v>
       </c>
       <c r="M13">
-        <v>1.043960541735529</v>
+        <v>1.042546905357498</v>
       </c>
       <c r="N13">
-        <v>1.032710358771164</v>
+        <v>1.027133373784536</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.04444880477688</v>
+        <v>1.043331289485274</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.040142580791535</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.038850993788487</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.022881822706201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.002410799717344</v>
+        <v>1.000446307888372</v>
       </c>
       <c r="D14">
-        <v>1.027024041659263</v>
+        <v>1.025028214699815</v>
       </c>
       <c r="E14">
-        <v>1.009943918641856</v>
+        <v>1.008282702909516</v>
       </c>
       <c r="F14">
-        <v>1.030200754143622</v>
+        <v>1.028671221141642</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.050838384765591</v>
+        <v>1.04960139852572</v>
       </c>
       <c r="J14">
-        <v>1.031719140631502</v>
+        <v>1.029836159249085</v>
       </c>
       <c r="K14">
-        <v>1.041470031022839</v>
+        <v>1.039509453315733</v>
       </c>
       <c r="L14">
-        <v>1.024697438664384</v>
+        <v>1.023066858153834</v>
       </c>
       <c r="M14">
-        <v>1.044591002938411</v>
+        <v>1.043088252384781</v>
       </c>
       <c r="N14">
-        <v>1.033184300151038</v>
+        <v>1.027191454454453</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.045119784151413</v>
+        <v>1.043931981252163</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.040461185202804</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.039090435476633</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.022961810688931</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.002852321252526</v>
+        <v>1.00082119295021</v>
       </c>
       <c r="D15">
-        <v>1.027331250119707</v>
+        <v>1.025279151057557</v>
       </c>
       <c r="E15">
-        <v>1.010288339538325</v>
+        <v>1.008567360976706</v>
       </c>
       <c r="F15">
-        <v>1.030554315060152</v>
+        <v>1.028979829438964</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.050976843816412</v>
+        <v>1.049701940974358</v>
       </c>
       <c r="J15">
-        <v>1.031956546052329</v>
+        <v>1.030008966830633</v>
       </c>
       <c r="K15">
-        <v>1.041686340408987</v>
+        <v>1.039670212168515</v>
       </c>
       <c r="L15">
-        <v>1.024947941963983</v>
+        <v>1.023258457872342</v>
       </c>
       <c r="M15">
-        <v>1.044853283147409</v>
+        <v>1.043306156674642</v>
       </c>
       <c r="N15">
-        <v>1.033422042714794</v>
+        <v>1.027208594196067</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.045364484969873</v>
+        <v>1.044141638542506</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.040619951042352</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.03921050136802</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.022995818173259</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.005194534164206</v>
+        <v>1.002847361017813</v>
       </c>
       <c r="D16">
-        <v>1.028876366717357</v>
+        <v>1.026556212470696</v>
       </c>
       <c r="E16">
-        <v>1.012086068955669</v>
+        <v>1.01008505738222</v>
       </c>
       <c r="F16">
-        <v>1.03214333164679</v>
+        <v>1.03035424980642</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.051636311383874</v>
+        <v>1.050180488118351</v>
       </c>
       <c r="J16">
-        <v>1.033127430643182</v>
+        <v>1.030872036926621</v>
       </c>
       <c r="K16">
-        <v>1.042707907888381</v>
+        <v>1.040426667759065</v>
       </c>
       <c r="L16">
-        <v>1.02620443434264</v>
+        <v>1.024238429508185</v>
       </c>
       <c r="M16">
-        <v>1.045920460476605</v>
+        <v>1.044161121308668</v>
       </c>
       <c r="N16">
-        <v>1.034594590096068</v>
+        <v>1.027290060348221</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.046169416877732</v>
+        <v>1.044778798555833</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.041345370464878</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.039748785672054</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.023134634764521</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.006569989288608</v>
+        <v>1.004063723640885</v>
       </c>
       <c r="D17">
-        <v>1.029750318135604</v>
+        <v>1.027292885134964</v>
       </c>
       <c r="E17">
-        <v>1.013131144320896</v>
+        <v>1.010990272892883</v>
       </c>
       <c r="F17">
-        <v>1.032948729116788</v>
+        <v>1.031049879877806</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.051991147837249</v>
+        <v>1.050442966738526</v>
       </c>
       <c r="J17">
-        <v>1.033778012863369</v>
+        <v>1.031366629688963</v>
       </c>
       <c r="K17">
-        <v>1.043256077136081</v>
+        <v>1.040838715673886</v>
       </c>
       <c r="L17">
-        <v>1.026912788711721</v>
+        <v>1.024808308340095</v>
       </c>
       <c r="M17">
-        <v>1.046402700485823</v>
+        <v>1.044534547037945</v>
       </c>
       <c r="N17">
-        <v>1.03524609621763</v>
+        <v>1.027380426864444</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.04642209537209</v>
+        <v>1.044945321881616</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.041735510909169</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.040042937365137</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.023200477598507</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.007226539956162</v>
+        <v>1.004665432602468</v>
       </c>
       <c r="D18">
-        <v>1.030100699933308</v>
+        <v>1.027595460581018</v>
       </c>
       <c r="E18">
-        <v>1.013607753160296</v>
+        <v>1.011420063059011</v>
       </c>
       <c r="F18">
-        <v>1.033101211730454</v>
+        <v>1.031163416160256</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.052102358921431</v>
+        <v>1.050521817753483</v>
       </c>
       <c r="J18">
-        <v>1.034019290047039</v>
+        <v>1.031553336830978</v>
       </c>
       <c r="K18">
-        <v>1.043419325019323</v>
+        <v>1.040954274772388</v>
       </c>
       <c r="L18">
-        <v>1.027195661503507</v>
+        <v>1.025044540550637</v>
       </c>
       <c r="M18">
-        <v>1.046372031154121</v>
+        <v>1.044465068735579</v>
       </c>
       <c r="N18">
-        <v>1.035487716042576</v>
+        <v>1.027403203403218</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.046161279203761</v>
+        <v>1.044653515501409</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.041839379720574</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.040111939558734</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023196951680171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.007234644359204</v>
+        <v>1.004701079844276</v>
       </c>
       <c r="D19">
-        <v>1.029983242959537</v>
+        <v>1.027503412439904</v>
       </c>
       <c r="E19">
-        <v>1.013572095989074</v>
+        <v>1.011410949480336</v>
       </c>
       <c r="F19">
-        <v>1.032658885463613</v>
+        <v>1.030739496507222</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.051997990342139</v>
+        <v>1.050433604695611</v>
       </c>
       <c r="J19">
-        <v>1.03389404787446</v>
+        <v>1.031454058871548</v>
       </c>
       <c r="K19">
-        <v>1.043241866904227</v>
+        <v>1.040801616391401</v>
       </c>
       <c r="L19">
-        <v>1.027097289059884</v>
+        <v>1.024972076784986</v>
       </c>
       <c r="M19">
-        <v>1.045875077077137</v>
+        <v>1.043986098610044</v>
       </c>
       <c r="N19">
-        <v>1.035362296011747</v>
+        <v>1.02732447297562</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.045444545030759</v>
+        <v>1.043950516883744</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.041720261607358</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.040010988780893</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.023131627577087</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.005414928321326</v>
+        <v>1.003138510496019</v>
       </c>
       <c r="D20">
-        <v>1.028545651942094</v>
+        <v>1.026295066199161</v>
       </c>
       <c r="E20">
-        <v>1.012091904467271</v>
+        <v>1.010162831298058</v>
       </c>
       <c r="F20">
-        <v>1.03059377666637</v>
+        <v>1.02885304056757</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.051287727737213</v>
+        <v>1.049874548818379</v>
       </c>
       <c r="J20">
-        <v>1.032738697648842</v>
+        <v>1.030548981635893</v>
       </c>
       <c r="K20">
-        <v>1.042104468591709</v>
+        <v>1.039890787117561</v>
       </c>
       <c r="L20">
-        <v>1.025925413222468</v>
+        <v>1.024029302871402</v>
       </c>
       <c r="M20">
-        <v>1.044119188884076</v>
+        <v>1.04240683287926</v>
       </c>
       <c r="N20">
-        <v>1.034205305056287</v>
+        <v>1.02693946375734</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.043530401679079</v>
+        <v>1.042175257626988</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.040919982659948</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.039371293648768</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.02289270259803</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.001032064104187</v>
+        <v>0.9994217266383613</v>
       </c>
       <c r="D21">
-        <v>1.025598919788434</v>
+        <v>1.023909079950111</v>
       </c>
       <c r="E21">
-        <v>1.008704174140034</v>
+        <v>1.007374854358582</v>
       </c>
       <c r="F21">
-        <v>1.027439327870689</v>
+        <v>1.026149010461449</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.050006383234961</v>
+        <v>1.048971940630364</v>
       </c>
       <c r="J21">
-        <v>1.030486698427471</v>
+        <v>1.028943645135405</v>
       </c>
       <c r="K21">
-        <v>1.040111017604051</v>
+        <v>1.038451216636504</v>
       </c>
       <c r="L21">
-        <v>1.023522498577238</v>
+        <v>1.022217842036969</v>
       </c>
       <c r="M21">
-        <v>1.041918856055421</v>
+        <v>1.040651357464185</v>
       </c>
       <c r="N21">
-        <v>1.031950107737714</v>
+        <v>1.026846117843852</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.041748352232867</v>
+        <v>1.040745213118896</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.039513762490019</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.03835700689632</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.02262548443935</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9982410393956578</v>
+        <v>0.9970345620002935</v>
       </c>
       <c r="D22">
-        <v>1.023733822316952</v>
+        <v>1.022386163602114</v>
       </c>
       <c r="E22">
-        <v>1.006556349521239</v>
+        <v>1.005591280084136</v>
       </c>
       <c r="F22">
-        <v>1.025477557700091</v>
+        <v>1.024461954473397</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.049187282358418</v>
+        <v>1.04838253794728</v>
       </c>
       <c r="J22">
-        <v>1.029058629498193</v>
+        <v>1.027905465068222</v>
       </c>
       <c r="K22">
-        <v>1.038849327703539</v>
+        <v>1.037526819026064</v>
       </c>
       <c r="L22">
-        <v>1.021999033219848</v>
+        <v>1.021052780454836</v>
       </c>
       <c r="M22">
-        <v>1.040560649387071</v>
+        <v>1.039563907357403</v>
       </c>
       <c r="N22">
-        <v>1.030520010786755</v>
+        <v>1.026734585046834</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.0406734237785</v>
+        <v>1.039884569049562</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.038608281879785</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.037688687907936</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.022452649859834</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9997158770883217</v>
+        <v>0.9982727985317048</v>
       </c>
       <c r="D23">
-        <v>1.024713526139223</v>
+        <v>1.023168327847685</v>
       </c>
       <c r="E23">
-        <v>1.007689018590042</v>
+        <v>1.006509697822451</v>
       </c>
       <c r="F23">
-        <v>1.026511493571937</v>
+        <v>1.025336597889161</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.049616960805964</v>
+        <v>1.048678880467621</v>
       </c>
       <c r="J23">
-        <v>1.029809028284181</v>
+        <v>1.028427868977656</v>
       </c>
       <c r="K23">
-        <v>1.03950894606144</v>
+        <v>1.037991857141936</v>
       </c>
       <c r="L23">
-        <v>1.02280035904596</v>
+        <v>1.02164344039901</v>
       </c>
       <c r="M23">
-        <v>1.041274344391976</v>
+        <v>1.040120714418795</v>
       </c>
       <c r="N23">
-        <v>1.031271475225091</v>
+        <v>1.026708544868744</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.04123826516614</v>
+        <v>1.040325244747563</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.039065078555065</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.038006960480046</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.022534778119681</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.005429905672077</v>
+        <v>1.003155852846774</v>
       </c>
       <c r="D24">
-        <v>1.028529073149163</v>
+        <v>1.026280452523004</v>
       </c>
       <c r="E24">
-        <v>1.012095156311914</v>
+        <v>1.010168513707168</v>
       </c>
       <c r="F24">
-        <v>1.03053882393449</v>
+        <v>1.028799492274898</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.051269947990219</v>
+        <v>1.049858062996767</v>
       </c>
       <c r="J24">
-        <v>1.03272052619637</v>
+        <v>1.03053295967912</v>
       </c>
       <c r="K24">
-        <v>1.042073048342516</v>
+        <v>1.039861254033372</v>
       </c>
       <c r="L24">
-        <v>1.025913145398926</v>
+        <v>1.024019381393219</v>
       </c>
       <c r="M24">
-        <v>1.044050059549015</v>
+        <v>1.042339052670543</v>
       </c>
       <c r="N24">
-        <v>1.034187107798268</v>
+        <v>1.026922573752846</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.043435052029922</v>
+        <v>1.042080909029385</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.040870546555078</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.039320486304789</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.022879265929859</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.011848778650984</v>
+        <v>1.009021956348425</v>
       </c>
       <c r="D25">
-        <v>1.032836114096295</v>
+        <v>1.030066275732447</v>
       </c>
       <c r="E25">
-        <v>1.017074222850484</v>
+        <v>1.014659841519873</v>
       </c>
       <c r="F25">
-        <v>1.035098913016243</v>
+        <v>1.032954008660842</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.053087996703387</v>
+        <v>1.051337152240756</v>
       </c>
       <c r="J25">
-        <v>1.035983859621136</v>
+        <v>1.033249464206528</v>
       </c>
       <c r="K25">
-        <v>1.04494521280936</v>
+        <v>1.042215115506194</v>
       </c>
       <c r="L25">
-        <v>1.029413141931053</v>
+        <v>1.027034766331002</v>
       </c>
       <c r="M25">
-        <v>1.047175745242449</v>
+        <v>1.045061421832702</v>
       </c>
       <c r="N25">
-        <v>1.037455075530807</v>
+        <v>1.028350541538799</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.045908808478449</v>
+        <v>1.044235473786389</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.042898444644123</v>
+        <v>1.040981618108054</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.023351069494038</v>
       </c>
     </row>
   </sheetData>
